--- a/docs/.vuepress/public/supplier_bundles_tpl.xlsx
+++ b/docs/.vuepress/public/supplier_bundles_tpl.xlsx
@@ -2610,14 +2610,14 @@
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="J2:J243">
+      <formula1>"Android(Phone/AndroidTV/etc),iOS(Phone/Apple TV/etc),Roku(TV),Tizen(Samsung TV),FireOS(Amazon TV),WebOS(LG TV),Linux(Desktop/Opera TV/etc),Windows(Desktop/Xbox/Microsoft TV/etc),MacOS(Desktop),Others"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G2:G243">
       <formula1>"O&amp;O,Direct,Indirect"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="L2:L16">
       <formula1>"YES,NO"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J243">
-      <formula1>"Android(Phone/AndroidTV/etc),iOS(Phone/Apple TV/etc),Roku(TV),Tizen(Samsung TV),Fire OS(Amazon TV),Web OS(LG TV),Linux(Desktop/Opera TV/etc),Windows(Desktop/Xbox/Microsoft TV/etc),MacOS(Desktop),Others"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I2:I243">
       <formula1>"Phone,Tablet,Desktop,Connected Device,Set Top Box,Others"</formula1>

--- a/docs/.vuepress/public/supplier_bundles_tpl.xlsx
+++ b/docs/.vuepress/public/supplier_bundles_tpl.xlsx
@@ -65,7 +65,30 @@
     <t>Publisher domain</t>
   </si>
   <si>
-    <t>Relationship</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Relationship(*</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -530,7 +553,7 @@
     <col customWidth="1" min="4" max="4" width="18.14"/>
     <col customWidth="1" min="5" max="5" width="20.57"/>
     <col customWidth="1" min="6" max="6" width="19.14"/>
-    <col customWidth="1" min="7" max="7" width="15.29"/>
+    <col customWidth="1" min="7" max="7" width="30.14"/>
     <col customWidth="1" min="8" max="8" width="20.86"/>
     <col customWidth="1" min="10" max="10" width="26.0"/>
     <col customWidth="1" min="11" max="11" width="59.14"/>
